--- a/descricao2020.xlsx
+++ b/descricao2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianegabriel/Downloads/classificador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE3D5C0-CB90-1246-9FDD-A1B2C99C1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4A251-B0DD-E944-8AB6-2A9B014C9E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
+    <workbookView xWindow="1400" yWindow="740" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
   </bookViews>
   <sheets>
     <sheet name="Eixos" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <t>Principal área de atuação (Opções de Resposta)</t>
   </si>
   <si>
-    <t>Domínios Prioritários</t>
+    <t>Domínios</t>
   </si>
 </sst>
 </file>

--- a/descricao2020.xlsx
+++ b/descricao2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianegabriel/Downloads/classificador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E4A251-B0DD-E944-8AB6-2A9B014C9E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2AB3C-B2DD-5F4D-B796-D954521D5F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="740" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
   </bookViews>
   <sheets>
     <sheet name="Eixos" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <t>Principal área de atuação (Opções de Resposta)</t>
   </si>
   <si>
-    <t>Domínios</t>
+    <t>Dominios</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/descricao2020.xlsx
+++ b/descricao2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianegabriel/Downloads/classificador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B2AB3C-B2DD-5F4D-B796-D954521D5F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D4A1B-D4E4-DC4D-8DC3-30F4C6AD108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="500" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
   </bookViews>
@@ -119,12 +119,6 @@
     <t>Agroalimentar</t>
   </si>
   <si>
-    <t>A fileira do agroalimentar está em expansão e é relevante para a economia portuguesa: representa 4,1% do PIB, 8,4% das exportações e cerca de 12% do emprego total. Entre 2007 e 2012, as exportações do setor cresceram, em média, 7,9% ao ano, acima da média nacional (3,4%). Este eixo relaciona-se com vários temas prioritários: Floresta, Água, Ambiente, Economia do Mar, TIC, Energia, Materiais, Indústrias de Produção, Turismo e Saúde.</t>
-  </si>
-  <si>
-    <t>- Produção de Alimentos Saudáveis com base em Agricultura Sustentável - Azeite, mel, proteínas - Áreas rurais, água, vinho, biodiversidade - Eficiência energética - Redução e reaproveitamento de resíduos - Segurança e rastreabilidade- Organização Eco-sistémica do Espaço Rural - Transporte e distribuição - Floresta e áreas rurais - Uso da terra e organização social - Incêndios, desertificação, tratamento de resíduos - Embalagens inteligentes - Alimentos customizados- Engenharia Alimentar e Tecnologias Avançadas - Biotecnologia - Biologia sintética - Engenharia tecnológica- Vinho- Exploração das Ligações da Alimentação com: Saúde, Economia do Mar, Turismo</t>
-  </si>
-  <si>
     <t>Floresta</t>
   </si>
   <si>
@@ -403,6 +397,21 @@
   </si>
   <si>
     <t>Dominios</t>
+  </si>
+  <si>
+    <t>O domínio Agroalimentar abrange toda a cadeia de produção, transformação e distribuição de alimentos, incluindo tanto os produtos de origem vegetal como animal. Engloba atividades agrícolas, pecuárias, agroindustriais e tecnológicas associadas à alimentação humana e animal.
+É um domínio de forte ligação à ciência e à inovação, onde se cruzam áreas como biotecnologia, nutrição, engenharia alimentar, agricultura de precisão e sustentabilidade. Inclui também o desenvolvimento de novos alimentos (funcionais ou personalizados), soluções para conservação, embalagens inteligentes, e tecnologias que garantem a segurança e a rastreabilidade alimentar.
+Este domínio procura responder à necessidade de produzir alimentos de forma mais eficiente, saudável, segura e sustentável, reforçando o valor económico e nutricional dos produtos e promovendo a competitividade da fileira agroalimentar portuguesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	•	Produção agrícola e pecuária
+	•	Transformação alimentar e inovação em produtos
+	•	Biotecnologia alimentar e nutrição personalizada
+	•	Tecnologias de conservação e embalagens inteligentes
+	•	Segurança alimentar e rastreabilidade
+	•	Sustentabilidade na produção agroindustrial
+	•	Valorização de subprodutos e economia circular
+	•	Agricultura de precisão e digitalização do setor</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -463,6 +472,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED73E237-40C8-6A43-9057-46D8ECAB3EC3}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,13 +826,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
@@ -913,102 +925,102 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="404" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
+      <c r="C12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1016,49 +1028,49 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/descricao2020.xlsx
+++ b/descricao2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianegabriel/Downloads/classificador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianegabriel/Downloads/classificador-main-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D4A1B-D4E4-DC4D-8DC3-30F4C6AD108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72105BCF-E1B4-F445-BF60-E88B3769BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
+    <workbookView xWindow="6920" yWindow="1020" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
   </bookViews>
   <sheets>
     <sheet name="Eixos" sheetId="1" r:id="rId1"/>
@@ -375,12 +375,6 @@
     <t>Indústrias Culturais e Criativas</t>
   </si>
   <si>
-    <t>Atividade emergente com elevado potencial de crescimento e valorização económica e cultural.</t>
-  </si>
-  <si>
-    <t>- Valorização de Produtos e Espaços - Moda (Vestuário, Calçado, Joalharia, Couros, Cortiça) - Arquitetura e Design- Produção e Promoção de Conteúdos Culturais - Música, Cinema, Rádio, TV - Literatura, Artes Performativas e Visuais- Património Cultural - Preservação e Valorização (tangível e intangível)- Publicidade- TIC e Conteúdos Digitais - Jogos, Software Educacional - Tecnologias para Artes e Línguas - Aplicações para Preservação da Herança Cultural - Moda tecnológica- Promoção de Eventos e Turismo Cultural</t>
-  </si>
-  <si>
     <t>Habitat</t>
   </si>
   <si>
@@ -412,6 +406,12 @@
 	•	Sustentabilidade na produção agroindustrial
 	•	Valorização de subprodutos e economia circular
 	•	Agricultura de precisão e digitalização do setor</t>
+  </si>
+  <si>
+    <t>Este domínio foca-se na valorização da identidade cultural portuguesa através de produtos criativos, design, moda, arquitetura, artes visuais, música, cinema, conteúdos digitais e preservação do património. Abrange também tecnologias aplicadas às artes, software educacional, jogos, eventos culturais e produção de conteúdos com potencial de internacionalização.</t>
+  </si>
+  <si>
+    <t>Exemplos de áreas incluídas: - Valorização de Produtos e Espaços - Moda (Vestuário, Calçado, Joalharia, Couros, Cortiça) - Arquitetura e Design- Produção e Promoção de Conteúdos Culturais - Música, Cinema, Rádio, TV - Literatura, Artes Performativas e Visuais- Património Cultural - Preservação e Valorização (tangível e intangível)- Publicidade- TIC e Conteúdos Digitais - Jogos, Software Educacional - Tecnologias para Artes e Línguas - Aplicações para Preservação da Herança Cultural - Moda tecnológica- Promoção de Eventos e Turismo Cultural</t>
   </si>
 </sst>
 </file>
@@ -467,14 +467,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED73E237-40C8-6A43-9057-46D8ECAB3EC3}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,17 +826,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,7 +862,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -900,7 +900,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -926,21 +926,21 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1038,7 +1038,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1050,27 +1050,27 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
+      <c r="D24" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/descricao2020.xlsx
+++ b/descricao2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianegabriel/Downloads/classificador-main-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72105BCF-E1B4-F445-BF60-E88B3769BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C5432C-15BC-9B43-8DC7-3D129BF92223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="1020" windowWidth="15660" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="21600" windowHeight="16560" xr2:uid="{F0A3DDB8-39FB-9B4B-9F5C-0CA4855F132D}"/>
   </bookViews>
   <sheets>
     <sheet name="Eixos" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>Habitat</t>
   </si>
   <si>
-    <t>A economia portuguesa é especializada em setores do cluster do habitat, com destaque em emprego e valor acrescentado relativamente à média da UE. Inclui atividades como: promoção imobiliária, construção, madeira, mobiliário, têxteis, cerâmica, vidro, metais, ferramentas, tintas e vernizes, entre outras, muitas delas intensivas em tecnologia.</t>
-  </si>
-  <si>
     <t>- Novos Métodos de Produção Sustentável e Eficiente - Gestão de resíduos - Redução de Impactos Ambientais - Produção flexível- Desenvolvimento de Materiais e Aplicações Inovadoras - Cortiça, Materiais Avançados - Cerâmica, Vidro, Cutelaria, Madeira, Mobiliário - Construção, Papel, TICs, Têxteis Lar - Tintas, Revestimentos, Produtos Metálicos</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>Exemplos de áreas incluídas: - Valorização de Produtos e Espaços - Moda (Vestuário, Calçado, Joalharia, Couros, Cortiça) - Arquitetura e Design- Produção e Promoção de Conteúdos Culturais - Música, Cinema, Rádio, TV - Literatura, Artes Performativas e Visuais- Património Cultural - Preservação e Valorização (tangível e intangível)- Publicidade- TIC e Conteúdos Digitais - Jogos, Software Educacional - Tecnologias para Artes e Línguas - Aplicações para Preservação da Herança Cultural - Moda tecnológica- Promoção de Eventos e Turismo Cultural</t>
+  </si>
+  <si>
+    <t>Este domínio engloba a fileira do Habitat, focando-se na inovação e sustentabilidade em materiais, produtos e soluções aplicadas à construção, mobiliário, arquitetura e design. Inclui também o desenvolvimento de novos materiais e processos produtivos eficientes, com forte ligação a setores como cortiça, cerâmica, madeira, vidro, metais, domótica e têxteis-lar. Valoriza a eco-inovação, a eficiência energética, o design sustentável e a internacionalização de soluções habitacionais e urbanas.</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,13 +826,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
@@ -933,10 +933,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,10 +1055,10 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1067,10 +1067,10 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
